--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,6 +2836,101 @@
         <v>5</v>
       </c>
     </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B101" s="9">
+        <v>18</v>
+      </c>
+      <c r="C101" s="10">
+        <v>1410</v>
+      </c>
+      <c r="D101" s="10">
+        <v>74</v>
+      </c>
+      <c r="E101" s="10">
+        <v>1055</v>
+      </c>
+      <c r="F101" s="10">
+        <v>855</v>
+      </c>
+      <c r="G101" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>44023</v>
+      </c>
+      <c r="B102" s="9">
+        <v>11</v>
+      </c>
+      <c r="C102" s="10">
+        <v>1424</v>
+      </c>
+      <c r="D102" s="10">
+        <v>74</v>
+      </c>
+      <c r="E102" s="10">
+        <v>1073</v>
+      </c>
+      <c r="F102" s="10">
+        <v>862</v>
+      </c>
+      <c r="G102" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>44024</v>
+      </c>
+      <c r="B103" s="9">
+        <v>11</v>
+      </c>
+      <c r="C103" s="10">
+        <v>1435</v>
+      </c>
+      <c r="D103" s="10">
+        <v>74</v>
+      </c>
+      <c r="E103" s="10">
+        <v>1085</v>
+      </c>
+      <c r="F103" s="10">
+        <v>870</v>
+      </c>
+      <c r="G103" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>44025</v>
+      </c>
+      <c r="B104" s="9">
+        <v>10</v>
+      </c>
+      <c r="C104" s="10">
+        <v>1445</v>
+      </c>
+      <c r="D104" s="10">
+        <v>74</v>
+      </c>
+      <c r="E104" s="10">
+        <v>1100</v>
+      </c>
+      <c r="F104" s="10">
+        <v>877</v>
+      </c>
+      <c r="G104" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,7 +2929,73 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
+      <c r="A105" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B105" s="9">
+        <v>9</v>
+      </c>
+      <c r="C105" s="10">
+        <v>1454</v>
+      </c>
+      <c r="D105" s="10">
+        <v>74</v>
+      </c>
+      <c r="E105" s="10">
+        <v>1113</v>
+      </c>
+      <c r="F105" s="10">
+        <v>888</v>
+      </c>
+      <c r="G105" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>44027</v>
+      </c>
+      <c r="B106" s="9">
+        <v>6</v>
+      </c>
+      <c r="C106" s="10">
+        <v>1460</v>
+      </c>
+      <c r="D106" s="10">
+        <v>74</v>
+      </c>
+      <c r="E106" s="10">
+        <v>1127</v>
+      </c>
+      <c r="F106" s="10">
+        <v>895</v>
+      </c>
+      <c r="G106" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>44028</v>
+      </c>
+      <c r="B107" s="9">
+        <v>8</v>
+      </c>
+      <c r="C107" s="10">
+        <v>1468</v>
+      </c>
+      <c r="D107" s="10">
+        <v>75</v>
+      </c>
+      <c r="E107" s="10">
+        <v>1142</v>
+      </c>
+      <c r="F107" s="10">
+        <v>908</v>
+      </c>
+      <c r="G107" s="10">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -254,6 +254,2327 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.9869936592830385E-2"/>
+          <c:y val="6.6269947781288002E-2"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.70841097987751533"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="7"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="107"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95B0-49B7-BABC-DFFF02E8C8DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2060477103"/>
+        <c:axId val="2060484591"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2060477103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060484591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2060484591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060477103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="7"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$2:$C$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="107"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>863</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>947</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1125</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1158</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1178</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1251</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1273</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1318</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1336</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1347</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1355</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1377</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1424</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1435</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1468</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4505-45E4-A291-13C77888A4B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2060522863"/>
+        <c:axId val="2060524527"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2060522863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060524527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2060524527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2060522863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>202405</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>535782</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,8 +5318,32 @@
         <v>2</v>
       </c>
     </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>44029</v>
+      </c>
+      <c r="B108" s="9">
+        <v>9</v>
+      </c>
+      <c r="C108" s="10">
+        <v>1477</v>
+      </c>
+      <c r="D108" s="10">
+        <v>75</v>
+      </c>
+      <c r="E108" s="10">
+        <v>1159</v>
+      </c>
+      <c r="F108" s="10">
+        <v>915</v>
+      </c>
+      <c r="G108" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -285,7 +285,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -331,13 +331,71 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd" cmpd="sng">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
+                <a:prstDash val="sysDash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -348,10 +406,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$B$108</c:f>
+              <c:f>Planilha1!$B$2:$B$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="109"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -672,6 +730,12 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -683,15 +747,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
         <c:axId val="2060477103"/>
         <c:axId val="2060484591"/>
       </c:barChart>
@@ -702,6 +767,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -723,7 +802,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -750,53 +829,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="2060477103"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -815,7 +853,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -875,7 +913,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -911,13 +949,71 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
+                <a:prstDash val="sysDash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -928,10 +1024,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$2:$C$108</c:f>
+              <c:f>Planilha1!$C$2:$C$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="109"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1252,6 +1348,12 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>1477</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1486</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,15 +1365,16 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
         <c:axId val="2060522863"/>
         <c:axId val="2060524527"/>
       </c:barChart>
@@ -1282,6 +1385,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1303,7 +1420,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1330,53 +1447,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="2060522863"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1395,7 +1471,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1507,7 +1583,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1518,7 +1594,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1541,18 +1617,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -1564,7 +1640,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1572,11 +1648,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1608,35 +1687,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1648,30 +1737,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1693,15 +1786,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1716,15 +1807,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1735,17 +1826,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1754,10 +1844,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -1773,21 +1863,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1806,17 +1890,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1825,17 +1908,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1844,17 +1926,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1875,7 +1956,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -1883,7 +1964,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1896,6 +1977,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1903,10 +1995,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1927,7 +2019,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1936,14 +2028,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1957,7 +2049,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1973,8 +2065,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1990,6 +2082,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1997,20 +2100,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2021,7 +2118,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2044,18 +2141,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -2067,7 +2164,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2075,11 +2172,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -2111,35 +2211,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2151,30 +2261,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2196,15 +2310,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2219,15 +2331,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2238,17 +2350,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2257,10 +2368,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
@@ -2276,21 +2387,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2309,17 +2414,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2328,17 +2432,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2347,17 +2450,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2378,7 +2480,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2386,7 +2488,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2399,6 +2501,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2406,10 +2519,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2430,7 +2543,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2439,14 +2552,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2460,7 +2573,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -2476,8 +2589,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2493,6 +2606,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2500,14 +2624,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2516,16 +2634,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>904874</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>202405</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>83342</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2546,16 +2664,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>535782</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1273968</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>45241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2840,9 +2958,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
@@ -5341,6 +5459,52 @@
         <v>2</v>
       </c>
     </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>44030</v>
+      </c>
+      <c r="B109" s="9">
+        <v>9</v>
+      </c>
+      <c r="C109" s="10">
+        <v>1486</v>
+      </c>
+      <c r="D109" s="10">
+        <v>75</v>
+      </c>
+      <c r="E109" s="10">
+        <v>1175</v>
+      </c>
+      <c r="F109" s="10">
+        <v>921</v>
+      </c>
+      <c r="G109" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>44031</v>
+      </c>
+      <c r="B110" s="9">
+        <v>8</v>
+      </c>
+      <c r="C110" s="10">
+        <v>1494</v>
+      </c>
+      <c r="D110" s="10">
+        <v>75</v>
+      </c>
+      <c r="E110" s="10">
+        <v>1195</v>
+      </c>
+      <c r="F110" s="10">
+        <v>928</v>
+      </c>
+      <c r="G110" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -271,7 +271,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -371,7 +370,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -406,10 +404,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$B$110</c:f>
+              <c:f>Planilha1!$B$2:$B$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="109"/>
+                <c:ptCount val="110"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -736,6 +734,9 @@
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,10 +1025,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$2:$C$110</c:f>
+              <c:f>Planilha1!$C$2:$C$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="109"/>
+                <c:ptCount val="110"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1354,6 +1355,9 @@
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>1494</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,16 +2638,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>904874</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>83342</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2664,16 +2668,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1273968</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>45241</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>869156</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>500063</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2958,10 +2962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5505,6 +5509,52 @@
         <v>2</v>
       </c>
     </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>44032</v>
+      </c>
+      <c r="B111" s="9">
+        <v>10</v>
+      </c>
+      <c r="C111" s="10">
+        <v>1504</v>
+      </c>
+      <c r="D111" s="10">
+        <v>75</v>
+      </c>
+      <c r="E111" s="10">
+        <v>1214</v>
+      </c>
+      <c r="F111" s="10">
+        <v>933</v>
+      </c>
+      <c r="G111" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>44033</v>
+      </c>
+      <c r="B112" s="9">
+        <v>10</v>
+      </c>
+      <c r="C112" s="10">
+        <v>1514</v>
+      </c>
+      <c r="D112" s="10">
+        <v>75</v>
+      </c>
+      <c r="E112" s="10">
+        <v>1237</v>
+      </c>
+      <c r="F112" s="10">
+        <v>940</v>
+      </c>
+      <c r="G112" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -2962,10 +2962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5555,6 +5555,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>44034</v>
+      </c>
+      <c r="B113" s="9">
+        <v>9</v>
+      </c>
+      <c r="C113" s="10">
+        <v>1523</v>
+      </c>
+      <c r="D113" s="10">
+        <v>75</v>
+      </c>
+      <c r="E113" s="10">
+        <v>1257</v>
+      </c>
+      <c r="F113" s="10">
+        <v>948</v>
+      </c>
+      <c r="G113" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -2962,7 +2962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B116" sqref="B116"/>
@@ -5578,6 +5578,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>44035</v>
+      </c>
+      <c r="B114" s="9">
+        <v>10</v>
+      </c>
+      <c r="C114" s="10">
+        <v>1533</v>
+      </c>
+      <c r="D114" s="10">
+        <v>75</v>
+      </c>
+      <c r="E114" s="10">
+        <v>1272</v>
+      </c>
+      <c r="F114" s="10">
+        <v>955</v>
+      </c>
+      <c r="G114" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -271,6 +271,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3814196558763488"/>
+          <c:y val="1.6580312684679008E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -370,6 +378,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -389,11 +398,11 @@
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="41275" cap="rnd" cmpd="sng">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
-                <a:prstDash val="sysDash"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -404,10 +413,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$B$111</c:f>
+              <c:f>Planilha1!$B$2:$B$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="110"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -737,6 +746,54 @@
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,10 +1082,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$2:$C$111</c:f>
+              <c:f>Planilha1!$C$2:$C$127</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="110"/>
+                <c:ptCount val="126"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1358,6 +1415,54 @@
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>1504</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1514</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1542</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1608</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1619</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1631</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1645</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1660</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2638,16 +2743,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>488157</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2668,16 +2773,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>869156</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>9522</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>404811</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>116679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2962,10 +3067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q152" sqref="Q152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5601,6 +5706,305 @@
         <v>2</v>
       </c>
     </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>44036</v>
+      </c>
+      <c r="B115" s="9">
+        <v>9</v>
+      </c>
+      <c r="C115" s="10">
+        <v>1542</v>
+      </c>
+      <c r="D115" s="10">
+        <v>75</v>
+      </c>
+      <c r="E115" s="10">
+        <v>1291</v>
+      </c>
+      <c r="F115" s="10">
+        <v>962</v>
+      </c>
+      <c r="G115" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>44037</v>
+      </c>
+      <c r="B116" s="9">
+        <v>10</v>
+      </c>
+      <c r="C116" s="10">
+        <v>1552</v>
+      </c>
+      <c r="D116" s="10">
+        <v>75</v>
+      </c>
+      <c r="E116" s="10">
+        <v>1310</v>
+      </c>
+      <c r="F116" s="10">
+        <v>968</v>
+      </c>
+      <c r="G116" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>44038</v>
+      </c>
+      <c r="B117" s="9">
+        <v>9</v>
+      </c>
+      <c r="C117" s="10">
+        <v>1561</v>
+      </c>
+      <c r="D117" s="10">
+        <v>76</v>
+      </c>
+      <c r="E117" s="10">
+        <v>1328</v>
+      </c>
+      <c r="F117" s="10">
+        <v>975</v>
+      </c>
+      <c r="G117" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>44039</v>
+      </c>
+      <c r="B118" s="9">
+        <v>11</v>
+      </c>
+      <c r="C118" s="10">
+        <v>1572</v>
+      </c>
+      <c r="D118" s="10">
+        <v>77</v>
+      </c>
+      <c r="E118" s="10">
+        <v>1351</v>
+      </c>
+      <c r="F118" s="10">
+        <v>982</v>
+      </c>
+      <c r="G118" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>44040</v>
+      </c>
+      <c r="B119" s="9">
+        <v>8</v>
+      </c>
+      <c r="C119" s="10">
+        <v>1580</v>
+      </c>
+      <c r="D119" s="10">
+        <v>78</v>
+      </c>
+      <c r="E119" s="10">
+        <v>1366</v>
+      </c>
+      <c r="F119" s="10">
+        <v>988</v>
+      </c>
+      <c r="G119" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>44041</v>
+      </c>
+      <c r="B120" s="9">
+        <v>10</v>
+      </c>
+      <c r="C120" s="10">
+        <v>1590</v>
+      </c>
+      <c r="D120" s="10">
+        <v>79</v>
+      </c>
+      <c r="E120" s="10">
+        <v>1385</v>
+      </c>
+      <c r="F120" s="10">
+        <v>995</v>
+      </c>
+      <c r="G120" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>44042</v>
+      </c>
+      <c r="B121" s="9">
+        <v>9</v>
+      </c>
+      <c r="C121" s="10">
+        <v>1599</v>
+      </c>
+      <c r="D121" s="10">
+        <v>79</v>
+      </c>
+      <c r="E121" s="10">
+        <v>1403</v>
+      </c>
+      <c r="F121" s="10">
+        <v>1002</v>
+      </c>
+      <c r="G121" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>44043</v>
+      </c>
+      <c r="B122" s="9">
+        <v>9</v>
+      </c>
+      <c r="C122" s="10">
+        <v>1608</v>
+      </c>
+      <c r="D122" s="10">
+        <v>79</v>
+      </c>
+      <c r="E122" s="10">
+        <v>1422</v>
+      </c>
+      <c r="F122" s="10">
+        <v>1009</v>
+      </c>
+      <c r="G122" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>44044</v>
+      </c>
+      <c r="B123" s="9">
+        <v>11</v>
+      </c>
+      <c r="C123" s="10">
+        <v>1619</v>
+      </c>
+      <c r="D123" s="10">
+        <v>79</v>
+      </c>
+      <c r="E123" s="10">
+        <v>1440</v>
+      </c>
+      <c r="F123" s="10">
+        <v>1016</v>
+      </c>
+      <c r="G123" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>44045</v>
+      </c>
+      <c r="B124" s="9">
+        <v>12</v>
+      </c>
+      <c r="C124" s="10">
+        <v>1631</v>
+      </c>
+      <c r="D124" s="10">
+        <v>79</v>
+      </c>
+      <c r="E124" s="10">
+        <v>1440</v>
+      </c>
+      <c r="F124" s="10">
+        <v>1024</v>
+      </c>
+      <c r="G124" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>44046</v>
+      </c>
+      <c r="B125" s="9">
+        <v>14</v>
+      </c>
+      <c r="C125" s="10">
+        <v>1645</v>
+      </c>
+      <c r="D125" s="10">
+        <v>79</v>
+      </c>
+      <c r="E125" s="10">
+        <v>1468</v>
+      </c>
+      <c r="F125" s="10">
+        <v>1030</v>
+      </c>
+      <c r="G125" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>44047</v>
+      </c>
+      <c r="B126" s="9">
+        <v>15</v>
+      </c>
+      <c r="C126" s="10">
+        <v>1660</v>
+      </c>
+      <c r="D126" s="10">
+        <v>79</v>
+      </c>
+      <c r="E126" s="10">
+        <v>1480</v>
+      </c>
+      <c r="F126" s="10">
+        <v>1036</v>
+      </c>
+      <c r="G126" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>44048</v>
+      </c>
+      <c r="B127" s="9">
+        <v>28</v>
+      </c>
+      <c r="C127" s="10">
+        <v>1688</v>
+      </c>
+      <c r="D127" s="10">
+        <v>79</v>
+      </c>
+      <c r="E127" s="10">
+        <v>1492</v>
+      </c>
+      <c r="F127" s="10">
+        <v>1051</v>
+      </c>
+      <c r="G127" s="10">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Daily Cases</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>Analyze</t>
+  </si>
+  <si>
+    <t>MM7</t>
+  </si>
+  <si>
+    <t>MM7_ANT</t>
+  </si>
+  <si>
+    <t>PERCENTMM7</t>
   </si>
 </sst>
 </file>
@@ -413,7 +422,7 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$2:$B$127</c:f>
+              <c:f>Planilha1!$B$3:$B$128</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="126"/>
@@ -463,10 +472,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -475,325 +484,325 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>26</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="40">
-                  <c:v>30</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="47">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="53">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>23</c:v>
-                </c:pt>
                 <c:pt idx="70">
-                  <c:v>18</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>15</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>22</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="79">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="80">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="87">
-                  <c:v>14</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>23</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="99">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="103">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="110">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="111">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="118">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>15</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>28</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2744,15 +2753,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>488157</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>166689</xdr:rowOff>
+      <xdr:colOff>511969</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3067,10 +3076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q152" sqref="Q152"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6005,6 +6014,56 @@
         <v>4</v>
       </c>
     </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>44049</v>
+      </c>
+      <c r="B128" s="9">
+        <v>20</v>
+      </c>
+      <c r="C128" s="10">
+        <v>1708</v>
+      </c>
+      <c r="D128" s="10">
+        <v>80</v>
+      </c>
+      <c r="E128" s="10">
+        <v>1505</v>
+      </c>
+      <c r="F128" s="10">
+        <v>1056</v>
+      </c>
+      <c r="G128" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131">
+        <f>AVERAGE(B122:B128)</f>
+        <v>15.571428571428571</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132">
+        <f>AVERAGE(B115:B121)</f>
+        <v>9.4285714285714288</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133">
+        <f>(D132/D131)*100</f>
+        <v>60.550458715596335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Daily Cases</t>
   </si>
@@ -45,15 +45,6 @@
   </si>
   <si>
     <t>Analyze</t>
-  </si>
-  <si>
-    <t>MM7</t>
-  </si>
-  <si>
-    <t>MM7_ANT</t>
-  </si>
-  <si>
-    <t>PERCENTMM7</t>
   </si>
 </sst>
 </file>
@@ -966,7 +957,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1056,7 +1046,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3076,10 +3065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+      <selection activeCell="C130" sqref="C130:E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6037,33 +6026,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C131" t="s">
-        <v>7</v>
-      </c>
-      <c r="D131">
-        <f>AVERAGE(B122:B128)</f>
-        <v>15.571428571428571</v>
-      </c>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C132" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132">
-        <f>AVERAGE(B115:B121)</f>
-        <v>9.4285714285714288</v>
-      </c>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133">
-        <f>(D132/D131)*100</f>
-        <v>60.550458715596335</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -957,6 +957,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1046,6 +1047,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3067,8 +3069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130:E134"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -275,8 +275,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.3814196558763488"/>
-          <c:y val="1.6580312684679008E-2"/>
+          <c:x val="0.40897796768880273"/>
+          <c:y val="2.5217250558003071E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2743,16 +2743,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>511969</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>119064</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1131094</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>130968</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2773,16 +2773,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>404811</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>116679</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>35716</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>45242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3069,8 +3069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -413,10 +413,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$3:$B$128</c:f>
+              <c:f>Planilha1!$B$4:$B$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="127"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -460,10 +460,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -472,328 +472,331 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>30</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>23</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="52">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>23</c:v>
-                </c:pt>
                 <c:pt idx="69">
-                  <c:v>18</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>15</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>22</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="78">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="79">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>16</c:v>
-                </c:pt>
                 <c:pt idx="86">
-                  <c:v>14</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>23</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="98">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="109">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="116">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="117">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="118">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2743,16 +2746,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1131094</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>559594</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2774,15 +2777,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>35716</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>45242</xdr:rowOff>
+      <xdr:colOff>11904</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>140492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3067,10 +3070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+      <selection activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6028,6 +6031,52 @@
         <v>4</v>
       </c>
     </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>44050</v>
+      </c>
+      <c r="B129" s="9">
+        <v>12</v>
+      </c>
+      <c r="C129" s="10">
+        <v>1720</v>
+      </c>
+      <c r="D129" s="10">
+        <v>80</v>
+      </c>
+      <c r="E129" s="10">
+        <v>1515</v>
+      </c>
+      <c r="F129" s="10">
+        <v>1073</v>
+      </c>
+      <c r="G129" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>44051</v>
+      </c>
+      <c r="B130" s="9">
+        <v>11</v>
+      </c>
+      <c r="C130" s="10">
+        <v>1731</v>
+      </c>
+      <c r="D130" s="10">
+        <v>80</v>
+      </c>
+      <c r="E130" s="10">
+        <v>1529</v>
+      </c>
+      <c r="F130" s="10">
+        <v>1080</v>
+      </c>
+      <c r="G130" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -271,12 +271,42 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Casos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> diários confirmados de covid-19 em breves</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.40897796768880273"/>
-          <c:y val="2.5217250558003071E-2"/>
+          <c:x val="0.21099397149822027"/>
+          <c:y val="9.795603969485301E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -413,10 +443,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$4:$B$130</c:f>
+              <c:f>Planilha1!$B$8:$B$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="127"/>
+                <c:ptCount val="143"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -448,7 +478,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -460,286 +490,286 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20</c:v>
-                </c:pt>
                 <c:pt idx="38">
-                  <c:v>30</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>23</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>23</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>28</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="52">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="96">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="97">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="100">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>10</c:v>
@@ -748,10 +778,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="112">
                   <c:v>10</c:v>
@@ -760,43 +790,91 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="114">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="140">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="116">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>11</c:v>
+                <c:pt idx="141">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,10 +1163,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$2:$C$127</c:f>
+              <c:f>Planilha1!$C$2:$C$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="126"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1466,6 +1544,75 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>1688</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1708</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1731</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1747</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1766</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1788</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1802</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1842</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1859</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1874</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2747,15 +2894,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>559594</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>321469</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2782,10 +2929,10 @@
       <xdr:rowOff>140492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3070,10 +3217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F171" sqref="F171"/>
+    <sheetView tabSelected="1" topLeftCell="F130" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AC138" sqref="AC138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6077,6 +6224,466 @@
         <v>2</v>
       </c>
     </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>44052</v>
+      </c>
+      <c r="B131" s="9">
+        <v>16</v>
+      </c>
+      <c r="C131" s="10">
+        <v>1747</v>
+      </c>
+      <c r="D131" s="10">
+        <v>80</v>
+      </c>
+      <c r="E131" s="10">
+        <v>1548</v>
+      </c>
+      <c r="F131" s="10">
+        <v>1093</v>
+      </c>
+      <c r="G131" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>44053</v>
+      </c>
+      <c r="B132" s="9">
+        <v>19</v>
+      </c>
+      <c r="C132" s="10">
+        <v>1766</v>
+      </c>
+      <c r="D132" s="10">
+        <v>80</v>
+      </c>
+      <c r="E132" s="10">
+        <v>1568</v>
+      </c>
+      <c r="F132" s="10">
+        <v>1110</v>
+      </c>
+      <c r="G132" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>44054</v>
+      </c>
+      <c r="B133" s="9">
+        <v>22</v>
+      </c>
+      <c r="C133" s="10">
+        <v>1788</v>
+      </c>
+      <c r="D133" s="10">
+        <v>80</v>
+      </c>
+      <c r="E133" s="10">
+        <v>1582</v>
+      </c>
+      <c r="F133" s="10">
+        <v>1128</v>
+      </c>
+      <c r="G133" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>44055</v>
+      </c>
+      <c r="B134" s="9">
+        <v>14</v>
+      </c>
+      <c r="C134" s="10">
+        <v>1802</v>
+      </c>
+      <c r="D134" s="10">
+        <v>81</v>
+      </c>
+      <c r="E134" s="10">
+        <v>1597</v>
+      </c>
+      <c r="F134" s="10">
+        <v>1142</v>
+      </c>
+      <c r="G134" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>44056</v>
+      </c>
+      <c r="B135" s="9">
+        <v>11</v>
+      </c>
+      <c r="C135" s="10">
+        <v>1813</v>
+      </c>
+      <c r="D135" s="10">
+        <v>81</v>
+      </c>
+      <c r="E135" s="10">
+        <v>1616</v>
+      </c>
+      <c r="F135" s="10">
+        <v>1163</v>
+      </c>
+      <c r="G135" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>44057</v>
+      </c>
+      <c r="B136" s="9">
+        <v>13</v>
+      </c>
+      <c r="C136" s="10">
+        <v>1826</v>
+      </c>
+      <c r="D136" s="10">
+        <v>82</v>
+      </c>
+      <c r="E136" s="10">
+        <v>1631</v>
+      </c>
+      <c r="F136" s="10">
+        <v>1172</v>
+      </c>
+      <c r="G136" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>44058</v>
+      </c>
+      <c r="B137" s="9">
+        <v>16</v>
+      </c>
+      <c r="C137" s="10">
+        <v>1842</v>
+      </c>
+      <c r="D137" s="10">
+        <v>82</v>
+      </c>
+      <c r="E137" s="10">
+        <v>1651</v>
+      </c>
+      <c r="F137" s="10">
+        <v>1186</v>
+      </c>
+      <c r="G137" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>44059</v>
+      </c>
+      <c r="B138" s="9">
+        <v>17</v>
+      </c>
+      <c r="C138" s="10">
+        <v>1859</v>
+      </c>
+      <c r="D138" s="10">
+        <v>83</v>
+      </c>
+      <c r="E138" s="10">
+        <v>1670</v>
+      </c>
+      <c r="F138" s="10">
+        <v>1195</v>
+      </c>
+      <c r="G138" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>44060</v>
+      </c>
+      <c r="B139" s="9">
+        <v>15</v>
+      </c>
+      <c r="C139" s="10">
+        <v>1874</v>
+      </c>
+      <c r="D139" s="10">
+        <v>84</v>
+      </c>
+      <c r="E139" s="10">
+        <v>1687</v>
+      </c>
+      <c r="F139" s="10">
+        <v>1200</v>
+      </c>
+      <c r="G139" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>44061</v>
+      </c>
+      <c r="B140" s="9">
+        <v>24</v>
+      </c>
+      <c r="C140" s="10">
+        <v>1898</v>
+      </c>
+      <c r="D140" s="10">
+        <v>85</v>
+      </c>
+      <c r="E140" s="10">
+        <v>1705</v>
+      </c>
+      <c r="F140" s="10">
+        <v>1214</v>
+      </c>
+      <c r="G140" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>44062</v>
+      </c>
+      <c r="B141" s="9">
+        <v>21</v>
+      </c>
+      <c r="C141" s="10">
+        <v>1919</v>
+      </c>
+      <c r="D141" s="10">
+        <v>85</v>
+      </c>
+      <c r="E141" s="10">
+        <v>1723</v>
+      </c>
+      <c r="F141" s="10">
+        <v>1228</v>
+      </c>
+      <c r="G141" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>44063</v>
+      </c>
+      <c r="B142" s="9">
+        <v>14</v>
+      </c>
+      <c r="C142" s="10">
+        <v>1933</v>
+      </c>
+      <c r="D142" s="10">
+        <v>85</v>
+      </c>
+      <c r="E142" s="10">
+        <v>1743</v>
+      </c>
+      <c r="F142" s="10">
+        <v>1247</v>
+      </c>
+      <c r="G142" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>44064</v>
+      </c>
+      <c r="B143" s="9">
+        <v>19</v>
+      </c>
+      <c r="C143" s="10">
+        <v>1952</v>
+      </c>
+      <c r="D143" s="10">
+        <v>85</v>
+      </c>
+      <c r="E143" s="10">
+        <v>1761</v>
+      </c>
+      <c r="F143" s="10">
+        <v>1261</v>
+      </c>
+      <c r="G143" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>44065</v>
+      </c>
+      <c r="B144" s="9">
+        <v>24</v>
+      </c>
+      <c r="C144" s="10">
+        <v>1976</v>
+      </c>
+      <c r="D144" s="10">
+        <v>85</v>
+      </c>
+      <c r="E144" s="10">
+        <v>1775</v>
+      </c>
+      <c r="F144" s="10">
+        <v>1268</v>
+      </c>
+      <c r="G144" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>44066</v>
+      </c>
+      <c r="B145" s="9">
+        <v>18</v>
+      </c>
+      <c r="C145" s="10">
+        <v>1994</v>
+      </c>
+      <c r="D145" s="10">
+        <v>85</v>
+      </c>
+      <c r="E145" s="10">
+        <v>1787</v>
+      </c>
+      <c r="F145" s="10">
+        <v>1280</v>
+      </c>
+      <c r="G145" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>44067</v>
+      </c>
+      <c r="B146" s="9">
+        <v>10</v>
+      </c>
+      <c r="C146" s="10">
+        <v>2004</v>
+      </c>
+      <c r="D146" s="10">
+        <v>85</v>
+      </c>
+      <c r="E146" s="10">
+        <v>1804</v>
+      </c>
+      <c r="F146" s="10">
+        <v>1290</v>
+      </c>
+      <c r="G146" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>44068</v>
+      </c>
+      <c r="B147" s="9">
+        <v>18</v>
+      </c>
+      <c r="C147" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D147" s="10">
+        <v>85</v>
+      </c>
+      <c r="E147" s="10">
+        <v>1823</v>
+      </c>
+      <c r="F147" s="10">
+        <v>1298</v>
+      </c>
+      <c r="G147" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>44069</v>
+      </c>
+      <c r="B148" s="9">
+        <v>8</v>
+      </c>
+      <c r="C148" s="10">
+        <v>2030</v>
+      </c>
+      <c r="D148" s="10">
+        <v>85</v>
+      </c>
+      <c r="E148" s="10">
+        <v>1837</v>
+      </c>
+      <c r="F148" s="10">
+        <v>1310</v>
+      </c>
+      <c r="G148" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>44070</v>
+      </c>
+      <c r="B149" s="9">
+        <v>19</v>
+      </c>
+      <c r="C149" s="10">
+        <v>2049</v>
+      </c>
+      <c r="D149" s="10">
+        <v>85</v>
+      </c>
+      <c r="E149" s="10">
+        <v>1851</v>
+      </c>
+      <c r="F149" s="10">
+        <v>1320</v>
+      </c>
+      <c r="G149" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>44071</v>
+      </c>
+      <c r="B150" s="9">
+        <v>16</v>
+      </c>
+      <c r="C150" s="10">
+        <v>2065</v>
+      </c>
+      <c r="D150" s="10">
+        <v>85</v>
+      </c>
+      <c r="E150" s="10">
+        <v>1861</v>
+      </c>
+      <c r="F150" s="10">
+        <v>1324</v>
+      </c>
+      <c r="G150" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -443,10 +443,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$8:$B$150</c:f>
+              <c:f>Planilha1!$B$8:$B$164</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="143"/>
+                <c:ptCount val="157"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -875,6 +875,48 @@
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,10 +3259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F130" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC138" sqref="AC138"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6684,6 +6726,328 @@
         <v>2</v>
       </c>
     </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>44072</v>
+      </c>
+      <c r="B151" s="9">
+        <v>15</v>
+      </c>
+      <c r="C151" s="10">
+        <v>2080</v>
+      </c>
+      <c r="D151" s="10">
+        <v>85</v>
+      </c>
+      <c r="E151" s="10">
+        <v>1873</v>
+      </c>
+      <c r="F151" s="10">
+        <v>1330</v>
+      </c>
+      <c r="G151" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>44073</v>
+      </c>
+      <c r="B152" s="10">
+        <v>10</v>
+      </c>
+      <c r="C152" s="10">
+        <v>2090</v>
+      </c>
+      <c r="D152" s="10">
+        <v>85</v>
+      </c>
+      <c r="E152" s="10">
+        <v>1884</v>
+      </c>
+      <c r="F152" s="10">
+        <v>1333</v>
+      </c>
+      <c r="G152" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>44074</v>
+      </c>
+      <c r="B153" s="10">
+        <v>9</v>
+      </c>
+      <c r="C153" s="10">
+        <v>2099</v>
+      </c>
+      <c r="D153" s="10">
+        <v>85</v>
+      </c>
+      <c r="E153" s="10">
+        <v>1898</v>
+      </c>
+      <c r="F153" s="10">
+        <v>1337</v>
+      </c>
+      <c r="G153" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>44075</v>
+      </c>
+      <c r="B154" s="10">
+        <v>18</v>
+      </c>
+      <c r="C154" s="10">
+        <v>2117</v>
+      </c>
+      <c r="D154" s="10">
+        <v>85</v>
+      </c>
+      <c r="E154" s="10">
+        <v>1918</v>
+      </c>
+      <c r="F154" s="10">
+        <v>1344</v>
+      </c>
+      <c r="G154" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>44076</v>
+      </c>
+      <c r="B155" s="10">
+        <v>12</v>
+      </c>
+      <c r="C155" s="10">
+        <v>2129</v>
+      </c>
+      <c r="D155" s="10">
+        <v>86</v>
+      </c>
+      <c r="E155" s="10">
+        <v>1936</v>
+      </c>
+      <c r="F155" s="10">
+        <v>1356</v>
+      </c>
+      <c r="G155" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>44077</v>
+      </c>
+      <c r="B156" s="10">
+        <v>11</v>
+      </c>
+      <c r="C156" s="10">
+        <v>2140</v>
+      </c>
+      <c r="D156" s="10">
+        <v>86</v>
+      </c>
+      <c r="E156" s="10">
+        <v>1945</v>
+      </c>
+      <c r="F156" s="10">
+        <v>1365</v>
+      </c>
+      <c r="G156" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>44078</v>
+      </c>
+      <c r="B157" s="10">
+        <v>20</v>
+      </c>
+      <c r="C157" s="10">
+        <v>2160</v>
+      </c>
+      <c r="D157" s="10">
+        <v>86</v>
+      </c>
+      <c r="E157" s="10">
+        <v>1952</v>
+      </c>
+      <c r="F157" s="10">
+        <v>1387</v>
+      </c>
+      <c r="G157" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>44079</v>
+      </c>
+      <c r="B158" s="10">
+        <v>16</v>
+      </c>
+      <c r="C158" s="10">
+        <v>2176</v>
+      </c>
+      <c r="D158" s="10">
+        <v>86</v>
+      </c>
+      <c r="E158" s="10">
+        <v>1959</v>
+      </c>
+      <c r="F158" s="10">
+        <v>1397</v>
+      </c>
+      <c r="G158" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>44080</v>
+      </c>
+      <c r="B159" s="10">
+        <v>8</v>
+      </c>
+      <c r="C159" s="10">
+        <v>2184</v>
+      </c>
+      <c r="D159" s="10">
+        <v>86</v>
+      </c>
+      <c r="E159" s="10">
+        <v>1970</v>
+      </c>
+      <c r="F159" s="10">
+        <v>1408</v>
+      </c>
+      <c r="G159" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>44081</v>
+      </c>
+      <c r="B160" s="10">
+        <v>6</v>
+      </c>
+      <c r="C160" s="10">
+        <v>2190</v>
+      </c>
+      <c r="D160" s="10">
+        <v>87</v>
+      </c>
+      <c r="E160" s="10">
+        <v>1983</v>
+      </c>
+      <c r="F160" s="10">
+        <v>1445</v>
+      </c>
+      <c r="G160" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>44082</v>
+      </c>
+      <c r="B161" s="10">
+        <v>10</v>
+      </c>
+      <c r="C161" s="10">
+        <v>2200</v>
+      </c>
+      <c r="D161" s="10">
+        <v>87</v>
+      </c>
+      <c r="E161" s="10">
+        <v>1991</v>
+      </c>
+      <c r="F161" s="10">
+        <v>1443</v>
+      </c>
+      <c r="G161" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>44083</v>
+      </c>
+      <c r="B162" s="10">
+        <v>11</v>
+      </c>
+      <c r="C162" s="10">
+        <v>2211</v>
+      </c>
+      <c r="D162" s="10">
+        <v>87</v>
+      </c>
+      <c r="E162" s="10">
+        <v>2002</v>
+      </c>
+      <c r="F162" s="10">
+        <v>1447</v>
+      </c>
+      <c r="G162" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>44084</v>
+      </c>
+      <c r="B163" s="10">
+        <v>8</v>
+      </c>
+      <c r="C163" s="10">
+        <v>2219</v>
+      </c>
+      <c r="D163" s="10">
+        <v>87</v>
+      </c>
+      <c r="E163" s="10">
+        <v>2015</v>
+      </c>
+      <c r="F163" s="10">
+        <v>1454</v>
+      </c>
+      <c r="G163" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>44085</v>
+      </c>
+      <c r="B164" s="10">
+        <v>20</v>
+      </c>
+      <c r="C164" s="10">
+        <v>2239</v>
+      </c>
+      <c r="D164" s="10">
+        <v>87</v>
+      </c>
+      <c r="E164" s="10">
+        <v>2021</v>
+      </c>
+      <c r="F164" s="10">
+        <v>1466</v>
+      </c>
+      <c r="G164" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -443,10 +443,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$8:$B$164</c:f>
+              <c:f>Planilha1!$B$8:$B$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="157"/>
+                <c:ptCount val="158"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -917,6 +917,9 @@
                 </c:pt>
                 <c:pt idx="156">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3259,10 +3262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="G139" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7048,6 +7051,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>44086</v>
+      </c>
+      <c r="B165" s="10">
+        <v>13</v>
+      </c>
+      <c r="C165" s="10">
+        <v>2252</v>
+      </c>
+      <c r="D165" s="10">
+        <v>87</v>
+      </c>
+      <c r="E165" s="10">
+        <v>2031</v>
+      </c>
+      <c r="F165" s="10">
+        <v>1479</v>
+      </c>
+      <c r="G165" s="10">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Atual_Dados_Breves_COVID19.xlsx
+++ b/Atual_Dados_Breves_COVID19.xlsx
@@ -3264,7 +3264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G139" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
